--- a/WebTemplate/Resources/Template/Payslip.xlsx
+++ b/WebTemplate/Resources/Template/Payslip.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23914"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS 3\source\repos\TPJ HR System\WebTemplate\Resources\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A92785906A50D8DBA37318B743B1298818069B38" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9F93F2A-537D-4DAC-A6B8-4A909837C132}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="16905" windowHeight="6450" tabRatio="912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="16905" windowHeight="6450" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="372" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -126,9 +120,6 @@
     <t>Pag-Ibig Premium</t>
   </si>
   <si>
-    <t>Provident Fund</t>
-  </si>
-  <si>
     <t>Withholding Tax</t>
   </si>
   <si>
@@ -159,19 +150,22 @@
     <t xml:space="preserve">Received by :      </t>
   </si>
   <si>
-    <t xml:space="preserve">        (Printed Name)</t>
+    <t>(Printed Name)</t>
+  </si>
+  <si>
+    <t>SSS (MPF)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -351,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -539,14 +533,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,7 +626,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +635,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,13 +656,13 @@
     <xf numFmtId="40" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,9 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -707,49 +707,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,29 +756,37 @@
     <xf numFmtId="40" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -794,7 +801,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,7 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,9 +826,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
+    <cellStyle name="Comma 3" xfId="2"/>
+    <cellStyle name="Comma 3 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -886,7 +893,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,27 +1017,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,24 +1051,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1255,14 +1226,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1280,23 +1251,23 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="86" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -1313,17 +1284,17 @@
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1343,42 +1314,42 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="69"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
@@ -1387,9 +1358,9 @@
       <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="77"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
@@ -1415,9 +1386,9 @@
       <c r="C14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="18"/>
@@ -1425,9 +1396,9 @@
       <c r="C15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="78"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A16" s="20"/>
@@ -1435,9 +1406,9 @@
       <c r="C16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="31"/>
@@ -1445,9 +1416,9 @@
       <c r="C17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="66"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A18" s="31"/>
@@ -1465,16 +1436,16 @@
       <c r="C19" s="33"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="53"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1">
@@ -1495,56 +1466,56 @@
       <c r="A22" s="18"/>
       <c r="B22" s="17"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="68"/>
+      <c r="F22" s="67"/>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="17"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="79"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="68"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="17"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="79"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="68"/>
+      <c r="F24" s="67"/>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="17"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="78"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="60" t="s">
+      <c r="D26" s="66"/>
+      <c r="E26" s="59" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1564,28 +1535,28 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="58"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="20"/>
@@ -1593,9 +1564,9 @@
       <c r="C32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="83"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
     </row>
@@ -1621,9 +1592,9 @@
       <c r="C34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="80"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="71"/>
+      <c r="F34" s="70"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A35" s="18"/>
@@ -1631,9 +1602,9 @@
       <c r="C35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="71"/>
+      <c r="F35" s="70"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="20"/>
@@ -1641,9 +1612,9 @@
       <c r="C36" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="71"/>
+      <c r="F36" s="70"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="31"/>
@@ -1651,9 +1622,9 @@
       <c r="C37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="80"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="71"/>
+      <c r="F37" s="70"/>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="31"/>
@@ -1661,9 +1632,9 @@
       <c r="C38" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="71"/>
+      <c r="F38" s="70"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="31"/>
@@ -1673,112 +1644,112 @@
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="54"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A40" s="93" t="s">
+      <c r="A40" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="97"/>
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="79">
         <v>0</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="76">
         <v>0</v>
       </c>
       <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="81">
+        <v>42</v>
+      </c>
+      <c r="B42" s="79">
         <v>0</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="78">
+        <v>31</v>
+      </c>
+      <c r="E42" s="76">
         <v>0</v>
       </c>
       <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="81">
+        <v>32</v>
+      </c>
+      <c r="B43" s="79">
         <v>0</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="78">
+        <v>33</v>
+      </c>
+      <c r="E43" s="76">
         <v>0</v>
       </c>
       <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="81">
+        <v>34</v>
+      </c>
+      <c r="B44" s="79">
         <v>0</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="78">
+        <v>35</v>
+      </c>
+      <c r="E44" s="76">
         <v>0</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="81">
+        <v>36</v>
+      </c>
+      <c r="B45" s="79">
         <v>0</v>
       </c>
       <c r="C45" s="40"/>
       <c r="F45" s="41"/>
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="42"/>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="87"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A47" s="83"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="43"/>
-    </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A48" s="32"/>
@@ -1793,7 +1764,7 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="46"/>
@@ -1803,119 +1774,120 @@
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
+        <v>40</v>
+      </c>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
     </row>
     <row r="51" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="48" t="s">
-        <v>42</v>
-      </c>
+      <c r="E51" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" s="1" customFormat="1" ht="5.25" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="49"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="48"/>
     </row>
     <row r="53" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="49"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="49"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="49"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="49"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="49"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="49"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="49"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="49"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="49"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="49"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="49"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="E51:F51"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="E3:F3"/>

--- a/WebTemplate/Resources/Template/Payslip.xlsx
+++ b/WebTemplate/Resources/Template/Payslip.xlsx
@@ -893,7 +893,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1916,7 +1916,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78" right="0.55000000000000004" top="0.12" bottom="0.2" header="0.5" footer="0.21"/>
-  <pageSetup scale="97" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="5" scale="96" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/WebTemplate/Resources/Template/Payslip.xlsx
+++ b/WebTemplate/Resources/Template/Payslip.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Trans-Pacific Journey Fishing Corporation</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Allowance</t>
-  </si>
-  <si>
-    <t>Night Differential:</t>
   </si>
   <si>
     <t xml:space="preserve">Deductions </t>
@@ -549,7 +546,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -823,6 +820,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -893,7 +893,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1629,26 +1629,24 @@
     <row r="38" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="31"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="29" t="s">
-        <v>27</v>
+      <c r="C38" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="70"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
       <c r="A39" s="31"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="C39" s="33"/>
       <c r="D39" s="39"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="53"/>
+      <c r="F39" s="98"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
       <c r="A40" s="95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="96"/>
       <c r="C40" s="96"/>
@@ -1658,14 +1656,14 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="79">
         <v>0</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="76">
         <v>0</v>
@@ -1674,14 +1672,14 @@
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="79">
         <v>0</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="76">
         <v>0</v>
@@ -1690,14 +1688,14 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="79">
         <v>0</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="76">
         <v>0</v>
@@ -1706,14 +1704,14 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="79">
         <v>0</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="76">
         <v>0</v>
@@ -1723,7 +1721,7 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="79">
         <v>0</v>
@@ -1736,7 +1734,7 @@
       <c r="B46" s="17"/>
       <c r="C46" s="42"/>
       <c r="D46" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="43"/>
@@ -1746,7 +1744,7 @@
       <c r="B47" s="84"/>
       <c r="C47" s="71"/>
       <c r="D47" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" s="73"/>
       <c r="F47" s="74"/>
@@ -1764,7 +1762,7 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="46"/>
@@ -1774,7 +1772,7 @@
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E50" s="86"/>
       <c r="F50" s="86"/>
@@ -1785,7 +1783,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="85"/>
     </row>
